--- a/04-Dataset4_Votes/04-SHACL/Mapping-PoliticalgroupId.xlsx
+++ b/04-Dataset4_Votes/04-SHACL/Mapping-PoliticalgroupId.xlsx
@@ -28,67 +28,229 @@
     <t xml:space="preserve">Vote mapping</t>
   </si>
   <si>
-    <t xml:space="preserve">ep:Body_GP-ECR-5148</t>
+    <t xml:space="preserve">http://data.europarl.europa.eu/org/group/ECR-5148</t>
   </si>
   <si>
     <t xml:space="preserve">ECR</t>
   </si>
   <si>
-    <t xml:space="preserve">ep:Body_GP-PPE-5153</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">http://data.europarl.europa.eu/org/group/PPE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-5153</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">PPE</t>
   </si>
   <si>
-    <t xml:space="preserve">ep:Body_GP-GUE/NGL-5151</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">http://data.europarl.europa.eu/org/group/NGL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-5151</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">GUE/NGL</t>
   </si>
   <si>
-    <t xml:space="preserve">ep:Body_GP-Verts/ALE-5155</t>
+    <t xml:space="preserve">http://data.europarl.europa.eu/org/group/ALE-5155</t>
   </si>
   <si>
     <t xml:space="preserve">Verts/ALE</t>
   </si>
   <si>
-    <t xml:space="preserve">ep:Body_GP-S&amp;D-5154</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">http://data.europarl.europa.eu/org/group/S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&amp;D-5154</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">S&amp;D</t>
   </si>
   <si>
-    <t xml:space="preserve">ep:Body_GP-ID-5588</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">http://data.europarl.europa.eu/org/group/ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-5588</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">ID</t>
   </si>
   <si>
-    <t xml:space="preserve">ep:Body_GP-NI-5152</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">http://data.europarl.europa.eu/org/group/NI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-5152</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">NI</t>
   </si>
   <si>
-    <t xml:space="preserve">ep:Body_GP-Renew-5704</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">http://data.europarl.europa.eu/org/group/Renew</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-5704</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Renew</t>
   </si>
   <si>
-    <t xml:space="preserve">ep:Body_GP-ENF-4908</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">http://data.europarl.europa.eu/org/group/ENF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-4908</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">ENF</t>
   </si>
   <si>
-    <t xml:space="preserve">ep:Body_GP-EFDD-4280</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">http://data.europarl.europa.eu/org/group/EFDD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-4280</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">EFDD</t>
   </si>
   <si>
-    <t xml:space="preserve">ep:Body_GP-ALDE-4283</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">http://data.europarl.europa.eu/org/group/ALDE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-4283</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">ALDE</t>
@@ -101,7 +263,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -126,6 +288,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
@@ -173,12 +342,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -201,13 +374,13 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="310" zoomScaleNormal="310" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="65.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="979" style="0" width="11.52"/>
   </cols>
@@ -221,87 +394,87 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+    <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+    <row r="8" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+    <row r="9" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+    <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+    <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+    <row r="12" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -390,6 +563,18 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="http://data.europarl.europa.eu/org/group/PPE"/>
+    <hyperlink ref="A4" r:id="rId2" display="http://data.europarl.europa.eu/org/group/NGL"/>
+    <hyperlink ref="A5" r:id="rId3" display="http://data.europarl.europa.eu/org/group/ALE-5155"/>
+    <hyperlink ref="A6" r:id="rId4" display="http://data.europarl.europa.eu/org/group/S"/>
+    <hyperlink ref="A7" r:id="rId5" display="http://data.europarl.europa.eu/org/group/ID"/>
+    <hyperlink ref="A8" r:id="rId6" display="http://data.europarl.europa.eu/org/group/NI"/>
+    <hyperlink ref="A9" r:id="rId7" display="http://data.europarl.europa.eu/org/group/Renew"/>
+    <hyperlink ref="A10" r:id="rId8" display="http://data.europarl.europa.eu/org/group/ENF"/>
+    <hyperlink ref="A11" r:id="rId9" display="http://data.europarl.europa.eu/org/group/EFDD"/>
+    <hyperlink ref="A12" r:id="rId10" display="http://data.europarl.europa.eu/org/group/ALDE"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
